--- a/performanceFeedback_sample_data_v1.1.xlsx
+++ b/performanceFeedback_sample_data_v1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://allegiscloud-my.sharepoint.com/personal/vmadhasi_teksystems_com/Documents/PracticeWork/FeedbackApp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="8_{3823DA79-6AB9-491B-A241-8778652631DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA109827-5123-400C-A94D-7C315FB94D29}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="8_{3823DA79-6AB9-491B-A241-8778652631DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D5C49FD-2C12-4F09-A255-8DDF47E161E3}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="398" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" tabRatio="398" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="performance_feedback_samples" sheetId="1" r:id="rId1"/>
@@ -722,12 +722,6 @@
     <t>roshni.patel@mycompany.com</t>
   </si>
   <si>
-    <t>Vikram Choudhary</t>
-  </si>
-  <si>
-    <t>vikram.choudhary@mycompany.com</t>
-  </si>
-  <si>
     <t>preeti.reddy@mycompany.com</t>
   </si>
   <si>
@@ -759,13 +753,19 @@
   </si>
   <si>
     <t>alka.tiwari@mycompany.com</t>
+  </si>
+  <si>
+    <t>Vikram Goud</t>
+  </si>
+  <si>
+    <t>vikram.goud@mycompany.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -925,6 +925,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Gautami"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1245,7 +1253,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1288,8 +1296,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1299,8 +1308,9 @@
     <xf numFmtId="14" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1334,6 +1344,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1660,8 +1671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A156" sqref="A156"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R162" sqref="R162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7512,7 +7523,7 @@
     </row>
     <row r="105" spans="1:18" ht="28.8">
       <c r="A105" s="3" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="B105" s="3">
         <v>4</v>
@@ -7562,8 +7573,8 @@
       <c r="Q105" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="R105" s="5" t="s">
-        <v>229</v>
+      <c r="R105" s="7" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="106" spans="1:18" ht="28.8">
@@ -7619,7 +7630,7 @@
         <v>215</v>
       </c>
       <c r="R106" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="107" spans="1:18" ht="28.8">
@@ -7675,7 +7686,7 @@
         <v>205</v>
       </c>
       <c r="R107" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="108" spans="1:18" ht="28.8">
@@ -7731,7 +7742,7 @@
         <v>215</v>
       </c>
       <c r="R108" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="109" spans="1:18" ht="28.8">
@@ -7787,7 +7798,7 @@
         <v>16</v>
       </c>
       <c r="R109" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="110" spans="1:18" ht="28.8">
@@ -7843,7 +7854,7 @@
         <v>215</v>
       </c>
       <c r="R110" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="111" spans="1:18" ht="28.8">
@@ -7899,7 +7910,7 @@
         <v>205</v>
       </c>
       <c r="R111" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="112" spans="1:18" ht="28.8">
@@ -7955,7 +7966,7 @@
         <v>215</v>
       </c>
       <c r="R112" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="113" spans="1:18" ht="28.8">
@@ -8011,7 +8022,7 @@
         <v>208</v>
       </c>
       <c r="R113" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="114" spans="1:18" ht="28.8">
@@ -8067,7 +8078,7 @@
         <v>205</v>
       </c>
       <c r="R114" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="115" spans="1:18" ht="28.8">
@@ -8123,7 +8134,7 @@
         <v>210</v>
       </c>
       <c r="R115" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="116" spans="1:18" ht="28.8">
@@ -8179,7 +8190,7 @@
         <v>16</v>
       </c>
       <c r="R116" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="117" spans="1:18" ht="28.8">
@@ -8632,7 +8643,7 @@
     </row>
     <row r="125" spans="1:18" ht="28.8">
       <c r="A125" s="3" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="B125" s="3">
         <v>5</v>
@@ -8682,8 +8693,8 @@
       <c r="Q125" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="R125" s="5" t="s">
-        <v>229</v>
+      <c r="R125" s="7" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="126" spans="1:18" ht="28.8">
@@ -8739,7 +8750,7 @@
         <v>215</v>
       </c>
       <c r="R126" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="127" spans="1:18" ht="28.8">
@@ -8795,7 +8806,7 @@
         <v>205</v>
       </c>
       <c r="R127" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="128" spans="1:18" ht="28.8">
@@ -8851,7 +8862,7 @@
         <v>215</v>
       </c>
       <c r="R128" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="129" spans="1:18" ht="28.8">
@@ -8907,7 +8918,7 @@
         <v>16</v>
       </c>
       <c r="R129" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="130" spans="1:18" ht="28.8">
@@ -8963,7 +8974,7 @@
         <v>215</v>
       </c>
       <c r="R130" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="131" spans="1:18" ht="28.8">
@@ -9019,7 +9030,7 @@
         <v>205</v>
       </c>
       <c r="R131" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="132" spans="1:18" ht="28.8">
@@ -9075,7 +9086,7 @@
         <v>215</v>
       </c>
       <c r="R132" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="133" spans="1:18" ht="28.8">
@@ -9131,7 +9142,7 @@
         <v>208</v>
       </c>
       <c r="R133" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="134" spans="1:18" ht="28.8">
@@ -9187,7 +9198,7 @@
         <v>205</v>
       </c>
       <c r="R134" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="135" spans="1:18" ht="28.8">
@@ -9243,7 +9254,7 @@
         <v>210</v>
       </c>
       <c r="R135" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="136" spans="1:18" ht="28.8">
@@ -9299,7 +9310,7 @@
         <v>16</v>
       </c>
       <c r="R136" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="137" spans="1:18" ht="28.8">
@@ -9752,7 +9763,7 @@
     </row>
     <row r="145" spans="1:18" ht="28.8">
       <c r="A145" s="3" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="B145" s="3">
         <v>5</v>
@@ -9802,8 +9813,8 @@
       <c r="Q145" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="R145" s="5" t="s">
-        <v>229</v>
+      <c r="R145" s="7" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="146" spans="1:18" ht="28.8">
@@ -9859,7 +9870,7 @@
         <v>215</v>
       </c>
       <c r="R146" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="147" spans="1:18" ht="28.8">
@@ -9915,7 +9926,7 @@
         <v>205</v>
       </c>
       <c r="R147" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="148" spans="1:18" ht="28.8">
@@ -9971,7 +9982,7 @@
         <v>215</v>
       </c>
       <c r="R148" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="149" spans="1:18" ht="28.8">
@@ -10027,7 +10038,7 @@
         <v>16</v>
       </c>
       <c r="R149" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="150" spans="1:18" ht="28.8">
@@ -10083,7 +10094,7 @@
         <v>215</v>
       </c>
       <c r="R150" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="151" spans="1:18" ht="28.8">
@@ -10139,7 +10150,7 @@
         <v>205</v>
       </c>
       <c r="R151" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="152" spans="1:18" ht="28.8">
@@ -10195,7 +10206,7 @@
         <v>215</v>
       </c>
       <c r="R152" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="153" spans="1:18" ht="28.8">
@@ -10251,7 +10262,7 @@
         <v>208</v>
       </c>
       <c r="R153" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="154" spans="1:18" ht="28.8">
@@ -10307,7 +10318,7 @@
         <v>205</v>
       </c>
       <c r="R154" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="155" spans="1:18" ht="28.8">
@@ -10363,7 +10374,7 @@
         <v>210</v>
       </c>
       <c r="R155" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="156" spans="1:18" ht="28.8">
@@ -10419,11 +10430,16 @@
         <v>16</v>
       </c>
       <c r="R156" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="R105" r:id="rId1" xr:uid="{46F0F913-B587-46CD-B471-B47EE2901A34}"/>
+    <hyperlink ref="R125" r:id="rId2" xr:uid="{E2283B25-1699-4DA6-A1B0-7B8F7B8F962B}"/>
+    <hyperlink ref="R145" r:id="rId3" xr:uid="{4F6FA303-BF5F-476B-B7EF-D681B3F8097B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>